--- a/data/trans_dic/IMC_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 97,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,17 +705,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>58,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,49%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +725,72 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>56,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,42%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>44,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>52,44%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51,77%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>52,92%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>55,09%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>58,62%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>50,53%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,52; 63,1</t>
+          <t>53,58; 63,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,86; 62,59</t>
+          <t>53,47; 62,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,65; 64,6</t>
+          <t>55,37; 64,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,27; 64,01</t>
+          <t>55,99; 64,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,67; 50,76</t>
+          <t>59,97; 67,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,22; 49,33</t>
+          <t>50,45; 61,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,57; 49,58</t>
+          <t>42,85; 50,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,57; 52,99</t>
+          <t>42,48; 49,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,97; 55,45</t>
+          <t>43,05; 50,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,88; 54,52</t>
+          <t>46,39; 53,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,42; 55,72</t>
+          <t>49,63; 56,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,9; 57,35</t>
+          <t>40,46; 48,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>49,17; 55,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>49,05; 54,6</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>50,02; 55,75</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>52,22; 57,78</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>55,87; 61,24</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>46,96; 53,8</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,74%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>59,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>46,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>50,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>54,4%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>54,16%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>54,26%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>54,56%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>55,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>54,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,02; 66,42</t>
+          <t>57,51; 67,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,7; 62,6</t>
+          <t>54,07; 63,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,79; 65,66</t>
+          <t>56,33; 65,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,75; 65,73</t>
+          <t>50,95; 65,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,74; 51,18</t>
+          <t>51,59; 65,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,94; 53,41</t>
+          <t>56,45; 67,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,73; 51,87</t>
+          <t>41,26; 50,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,05; 56,97</t>
+          <t>45,26; 53,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,32; 57,6</t>
+          <t>42,94; 51,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,33; 56,64</t>
+          <t>43,18; 56,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,05; 57,32</t>
+          <t>44,8; 58,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,16; 59,73</t>
+          <t>41,94; 51,8</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>51,03; 58,23</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>50,77; 57,48</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>51,15; 57,41</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>48,68; 59,62</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>50,91; 60,92</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>50,96; 58,5</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>77,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>73,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>51,43%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>60,18%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>65,38%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>44,65%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>60,43%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>65,05%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>66,83%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>59,67%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,42; 69,55</t>
+          <t>51,85; 71,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,26; 83,94</t>
+          <t>69,29; 84,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,68; 84,91</t>
+          <t>70,54; 85,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,51; 70,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,53; 60,29</t>
+          <t>63,4; 82,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,13; 61,82</t>
+          <t>49,54; 67,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>43,7; 60,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44,96; 61,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>52,87; 66,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>59,45; 71,3</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,76; 72,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>35,54; 55,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>53,55; 66,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>59,01; 70,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>61,0; 72,7</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>52,41; 67,8</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1305,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,42%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,42 +1325,72 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,88%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>45,43%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>54,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55,07%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>54,97%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>58,01%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>53,2%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,71; 62,53</t>
+          <t>57,11; 63,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,26; 63,23</t>
+          <t>57,76; 63,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,49; 65,56</t>
+          <t>59,55; 65,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,05; 63,41</t>
+          <t>56,54; 63,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,57; 51,44</t>
+          <t>58,97; 66,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,68; 50,69</t>
+          <t>56,93; 64,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 49,78</t>
+          <t>44,98; 50,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,48; 52,92</t>
+          <t>45,25; 50,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,51; 56,14</t>
+          <t>44,87; 50,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,2; 56,21</t>
+          <t>46,87; 53,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,76; 56,89</t>
+          <t>49,69; 56,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,05; 57,07</t>
+          <t>42,51; 48,49</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>51,81; 56,21</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>52,45; 56,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>52,8; 57,01</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>52,45; 57,28</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>55,51; 60,6</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>50,74; 55,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 97,68%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>763.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>814.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>848.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>933723</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>920252</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>946501</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>134265</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>136437</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>909984</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>762371</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>783792</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>816121</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>112549</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>113638</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>755530</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1696093</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1704044</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1762622</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>246814</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>250075</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1665513</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>857975; 1017280</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>848394; 985042</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>875173; 1013972</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>124975; 143350</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>127639; 143887</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>806865; 991438</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>699853; 830236</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>724158; 846016</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>753380; 875861</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>104268; 121291</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>106085; 120446</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>686433; 826581</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1590308; 1798490</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1614541; 1797052</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1665876; 1856609</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>233955; 258843</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>238321; 261220</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1547933; 1773198</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>613.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>488.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>823710</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>795791</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>820808</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40992</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41258</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>825871</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>594744</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>632144</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>615022</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30989</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29528</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>609633</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1418454</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1427936</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1435831</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>71982</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>70785</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1435504</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>759593; 892872</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>726965; 859469</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>756022; 882627</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35715; 46134</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35819; 45809</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>748832; 896123</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>530942; 655051</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>584827; 690136</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>559813; 670600</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26704; 35231</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25590; 33351</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>546019; 674309</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1330613; 1518311</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1338632; 1515449</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1353362; 1519037</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>64228; 78660</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>64422; 77088</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1339390; 1537565</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>249172</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>314668</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>326446</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>299854</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>208108</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>188337</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>201194</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>171634</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>457280</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>503004</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>527639</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>471487</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>209672; 288155</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>282030; 343518</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>289372; 351340</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>257275; 335950</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>174538; 238644</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>160007; 220067</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>170542; 231442</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>136602; 213835</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>405211; 503886</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>456274; 544256</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>481618; 574043</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>414163; 535718</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>831.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>844.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>556.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>736.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>762.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>514.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>533.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1282.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1567.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1606.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1103.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1178.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2006604</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2030711</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2093754</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>175258</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>177695</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2035709</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1565223</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1604273</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1632337</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>143538</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>143165</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1536796</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3571827</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3634983</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3726092</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>318795</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>320860</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3572506</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1899788; 2115546</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1928118; 2127569</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1984676; 2195881</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>165831; 186181</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>166461; 187182</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1896910; 2157120</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1471982; 1655265</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1521915; 1696305</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1540497; 1727025</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>134357; 152937</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>134578; 151770</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1438086; 1640317</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3418759; 3708991</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3514972; 3772566</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3572462; 3857679</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>304148; 332151</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>307048; 335190</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3407174; 3730459</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
